--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>fix_b</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +141,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -206,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,7 +211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -650,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -807,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1162,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1262,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1454,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1462,15 +1458,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>2.8827156601495609E-5</v>
@@ -1478,7 +1474,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.50506998459445496</v>
@@ -1486,7 +1482,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1490,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1502,18 +1498,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1578,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,42 +1702,42 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
@@ -1750,40 +1746,40 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
@@ -1791,40 +1787,40 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
@@ -1832,40 +1828,40 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
@@ -1873,40 +1869,40 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
@@ -1956,42 +1952,42 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
@@ -2000,40 +1996,40 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
@@ -2041,40 +2037,40 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
@@ -2082,40 +2078,40 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2123,40 +2119,40 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
@@ -2244,8 +2240,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>29</v>
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2366,8 +2362,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>29</v>
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2403,16 +2399,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1.004</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2420,64 +2416,64 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1.0009999999999999</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>1.008</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>1.01</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2489,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2500,27 +2496,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2528,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2536,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2544,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2568,161 +2552,147 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I16">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
+      <c r="K16">
+        <v>0.9</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O16">
+        <v>1.3</v>
+      </c>
+      <c r="P16">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>1.5</v>
+      </c>
+      <c r="R16">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I17">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J17">
-        <v>0.8</v>
-      </c>
-      <c r="K17">
-        <v>0.9</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N17">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O17">
-        <v>1.3</v>
-      </c>
-      <c r="P17">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>1.5</v>
-      </c>
-      <c r="R17">
-        <v>1.6</v>
-      </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2745,11 +2715,11 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>24</v>
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2808,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -152,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -230,7 +235,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -305,6 +310,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,20 +639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -655,7 +663,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -664,7 +672,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -673,7 +681,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -683,7 +691,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -693,94 +701,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -792,16 +800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -869,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -937,7 +945,7 @@
         <v>-1.4040563153620824</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>-0.72664253090796094</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1147,16 +1155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1247,16 +1255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1281,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1347,16 +1355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>0.62747511711873949</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1447,16 +1455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>2.8827156601495609E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>0.50506998459445496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1496,12 +1504,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>1.3973110444674307E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>1.2671294270684547E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>1.4497335389794953E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1562,21 +1570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1616,71 +1624,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1693,14 +1701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1752,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1875,7 @@
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1906,31 +1916,31 @@
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1943,14 +1953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1992,7 +2002,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2156,51 +2166,51 @@
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2212,34 +2222,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2333,35 +2343,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2405,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2429,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2456,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
@@ -2463,13 +2473,13 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -2484,19 +2494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2522,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2520,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2538,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2705,16 +2715,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2754,10 +2764,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2767,16 +2777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2844,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2912,7 +2922,7 @@
         <v>-1.4040563153620824</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>-0.72664253090796094</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>0.58484556186475078</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -885,64 +885,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.841082687674968E-2</v>
+        <v>-9.8410826876749694E-2</v>
       </c>
       <c r="D2">
-        <v>-0.1942039145465092</v>
+        <v>-0.19420391454650901</v>
       </c>
       <c r="E2">
-        <v>-0.28727947830587225</v>
+        <v>-0.28727947830587203</v>
       </c>
       <c r="F2">
         <v>-0.37754494257598598</v>
       </c>
       <c r="G2">
-        <v>-0.4649138547329576</v>
+        <v>-0.46491385473295799</v>
       </c>
       <c r="H2">
-        <v>-0.54930982342866908</v>
+        <v>-0.54930982342866896</v>
       </c>
       <c r="I2">
         <v>-0.63066527523914095</v>
       </c>
       <c r="J2">
-        <v>-0.70892500737664044</v>
+        <v>-0.70892500737663999</v>
       </c>
       <c r="K2">
-        <v>-0.7840448378271605</v>
+        <v>-0.78404483782716095</v>
       </c>
       <c r="L2">
-        <v>-0.85599462915662394</v>
+        <v>-0.85599462915662405</v>
       </c>
       <c r="M2">
-        <v>-0.9247567126377525</v>
+        <v>-0.92475671263775205</v>
       </c>
       <c r="N2">
-        <v>-0.99032827686321312</v>
+        <v>-0.99032827686321301</v>
       </c>
       <c r="O2">
-        <v>-1.052719492499798</v>
+        <v>-1.0527194924998</v>
       </c>
       <c r="P2">
-        <v>-1.1119552214663309</v>
+        <v>-1.11195522146633</v>
       </c>
       <c r="Q2">
-        <v>-1.1680728334210047</v>
+        <v>-1.168072833421</v>
       </c>
       <c r="R2">
-        <v>-1.2211232647905947</v>
+        <v>-1.2211232647905901</v>
       </c>
       <c r="S2">
-        <v>-1.2711685850764449</v>
+        <v>-1.27116858507644</v>
       </c>
       <c r="T2">
-        <v>-1.3182825024188456</v>
+        <v>-1.31828250241885</v>
       </c>
       <c r="U2">
-        <v>-1.3625477905160117</v>
+        <v>-1.3625477905160099</v>
       </c>
       <c r="V2">
-        <v>-1.4040563153620824</v>
+        <v>-1.40405631536208</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -953,64 +953,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696595351877104E-2</v>
+        <v>-6.1696595351877097E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025356815556576</v>
+        <v>-0.120253568155566</v>
       </c>
       <c r="E3">
-        <v>-0.17571069152289509</v>
+        <v>-0.17571069152289501</v>
       </c>
       <c r="F3">
-        <v>-0.2281209460153252</v>
+        <v>-0.22812094601532501</v>
       </c>
       <c r="G3">
-        <v>-0.27754820613664227</v>
+        <v>-0.277548206136642</v>
       </c>
       <c r="H3">
-        <v>-0.32406769814217617</v>
+        <v>-0.32406769814217601</v>
       </c>
       <c r="I3">
-        <v>-0.36776344266118738</v>
+        <v>-0.36776344266118699</v>
       </c>
       <c r="J3">
-        <v>-0.40872831958641537</v>
+        <v>-0.40872831958641498</v>
       </c>
       <c r="K3">
-        <v>-0.44706152136180938</v>
+        <v>-0.44706152136180899</v>
       </c>
       <c r="L3">
-        <v>-0.48286838244150915</v>
+        <v>-0.48286838244150898</v>
       </c>
       <c r="M3">
-        <v>-0.51625797577708588</v>
+        <v>-0.51625797577708599</v>
       </c>
       <c r="N3">
-        <v>-0.54734285075448219</v>
+        <v>-0.54734285075448197</v>
       </c>
       <c r="O3">
-        <v>-0.57623687850545646</v>
+        <v>-0.57623687850545602</v>
       </c>
       <c r="P3">
-        <v>-0.60305501000416983</v>
+        <v>-0.60305501000416994</v>
       </c>
       <c r="Q3">
-        <v>-0.62791143684497919</v>
+        <v>-0.62791143684497897</v>
       </c>
       <c r="R3">
-        <v>-0.65091944127427226</v>
+        <v>-0.65091944127427204</v>
       </c>
       <c r="S3">
-        <v>-0.67218989859649769</v>
+        <v>-0.67218989859649803</v>
       </c>
       <c r="T3">
-        <v>-0.69183125289612246</v>
+        <v>-0.69183125289612202</v>
       </c>
       <c r="U3">
-        <v>-0.70994835304964232</v>
+        <v>-0.70994835304964199</v>
       </c>
       <c r="V3">
-        <v>-0.72664253090796094</v>
+        <v>-0.72664253090796105</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1089,64 +1089,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.9084241535294474E-2</v>
+        <v>-3.9084241535294502E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6104122696779311E-2</v>
+        <v>-7.6104122696779297E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11112611726370206</v>
+        <v>-0.111126117263702</v>
       </c>
       <c r="F5">
-        <v>-0.14421901632027886</v>
+        <v>-0.144219016320279</v>
       </c>
       <c r="G5">
-        <v>-0.17545302696547482</v>
+        <v>-0.17545302696547499</v>
       </c>
       <c r="H5">
-        <v>-0.20489981637855745</v>
+        <v>-0.204899816378557</v>
       </c>
       <c r="I5">
-        <v>-0.23263163302695536</v>
+        <v>-0.232631633026955</v>
       </c>
       <c r="J5">
-        <v>-0.25872130664833803</v>
+        <v>-0.25872130664833798</v>
       </c>
       <c r="K5">
-        <v>-0.28324145601284745</v>
+        <v>-0.283241456012847</v>
       </c>
       <c r="L5">
-        <v>-0.30626447908384169</v>
+        <v>-0.30626447908384202</v>
       </c>
       <c r="M5">
-        <v>-0.32786186336842987</v>
+        <v>-0.32786186336842998</v>
       </c>
       <c r="N5">
-        <v>-0.34810418983980868</v>
+        <v>-0.34810418983980901</v>
       </c>
       <c r="O5">
-        <v>-0.36706055281471173</v>
+        <v>-0.367060552814712</v>
       </c>
       <c r="P5">
-        <v>-0.38479859129179239</v>
+        <v>-0.384798591291792</v>
       </c>
       <c r="Q5">
-        <v>-0.40138401734689216</v>
+        <v>-0.401384017346892</v>
       </c>
       <c r="R5">
-        <v>-0.41688068036492087</v>
+        <v>-0.41688068036492099</v>
       </c>
       <c r="S5">
-        <v>-0.43135019689024756</v>
+        <v>-0.43135019689024801</v>
       </c>
       <c r="T5">
-        <v>-0.44485204722071076</v>
+        <v>-0.44485204722071098</v>
       </c>
       <c r="U5">
-        <v>-0.45744329569445641</v>
+        <v>-0.45744329569445602</v>
       </c>
       <c r="V5">
-        <v>-0.46917870617728719</v>
+        <v>-0.46917870617728702</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.48134802283535172</v>
+        <v>0.481348022835352</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24684758600933732</v>
+        <v>0.24684758600933701</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69626756189993144</v>
+        <v>0.696267561899931</v>
       </c>
       <c r="E4">
-        <v>0.62747511711873949</v>
+        <v>0.62747511711873905</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97490411344244032</v>
+        <v>-0.97490411344243999</v>
       </c>
       <c r="E5">
-        <v>0.95333031368794163</v>
+        <v>0.95333031368794197</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8827156601495609E-5</v>
+        <v>2.8827156601495599E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9865552223371536E-6</v>
+        <v>6.9865552223371502E-6</v>
       </c>
       <c r="C8">
-        <v>1.3973110444674307E-5</v>
+        <v>1.39731104446743E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.3356471353422735E-7</v>
+        <v>6.3356471353422703E-7</v>
       </c>
       <c r="C9">
-        <v>1.2671294270684547E-6</v>
+        <v>1.26712942706845E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4497335389794953E-4</v>
+        <v>1.4497335389794999E-4</v>
       </c>
       <c r="C10">
-        <v>1.4497335389794953E-4</v>
+        <v>1.4497335389794999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.015220135769877E-5</v>
+        <v>1.01522013576988E-5</v>
       </c>
       <c r="C11">
-        <v>1.1652710960466557E-4</v>
+        <v>1.1652710960466601E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1733,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="15">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="17">
         <v>1.2</v>
@@ -1757,40 +1757,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1798,40 +1798,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1839,40 +1839,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1880,40 +1880,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="8">
         <v>1.2</v>
@@ -2007,40 +2007,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2048,40 +2048,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2130,40 +2130,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2661,10 +2661,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2679,13 +2679,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2694,13 +2694,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2862,64 +2862,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.841082687674968E-2</v>
+        <v>-9.8410826876749694E-2</v>
       </c>
       <c r="D2">
-        <v>-0.1942039145465092</v>
+        <v>-0.19420391454650901</v>
       </c>
       <c r="E2">
-        <v>-0.28727947830587225</v>
+        <v>-0.28727947830587203</v>
       </c>
       <c r="F2">
         <v>-0.37754494257598598</v>
       </c>
       <c r="G2">
-        <v>-0.4649138547329576</v>
+        <v>-0.46491385473295799</v>
       </c>
       <c r="H2">
-        <v>-0.54930982342866908</v>
+        <v>-0.54930982342866896</v>
       </c>
       <c r="I2">
         <v>-0.63066527523914095</v>
       </c>
       <c r="J2">
-        <v>-0.70892500737664044</v>
+        <v>-0.70892500737663999</v>
       </c>
       <c r="K2">
-        <v>-0.7840448378271605</v>
+        <v>-0.78404483782716095</v>
       </c>
       <c r="L2">
-        <v>-0.85599462915662394</v>
+        <v>-0.85599462915662405</v>
       </c>
       <c r="M2">
-        <v>-0.9247567126377525</v>
+        <v>-0.92475671263775205</v>
       </c>
       <c r="N2">
-        <v>-0.99032827686321312</v>
+        <v>-0.99032827686321301</v>
       </c>
       <c r="O2">
-        <v>-1.052719492499798</v>
+        <v>-1.0527194924998</v>
       </c>
       <c r="P2">
-        <v>-1.1119552214663309</v>
+        <v>-1.11195522146633</v>
       </c>
       <c r="Q2">
-        <v>-1.1680728334210047</v>
+        <v>-1.168072833421</v>
       </c>
       <c r="R2">
-        <v>-1.2211232647905947</v>
+        <v>-1.2211232647905901</v>
       </c>
       <c r="S2">
-        <v>-1.2711685850764449</v>
+        <v>-1.27116858507644</v>
       </c>
       <c r="T2">
-        <v>-1.3182825024188456</v>
+        <v>-1.31828250241885</v>
       </c>
       <c r="U2">
-        <v>-1.3625477905160117</v>
+        <v>-1.3625477905160099</v>
       </c>
       <c r="V2">
-        <v>-1.4040563153620824</v>
+        <v>-1.40405631536208</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2930,64 +2930,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696595351877104E-2</v>
+        <v>-6.1696595351877097E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025356815556576</v>
+        <v>-0.120253568155566</v>
       </c>
       <c r="E3">
-        <v>-0.17571069152289509</v>
+        <v>-0.17571069152289501</v>
       </c>
       <c r="F3">
-        <v>-0.2281209460153252</v>
+        <v>-0.22812094601532501</v>
       </c>
       <c r="G3">
-        <v>-0.27754820613664227</v>
+        <v>-0.277548206136642</v>
       </c>
       <c r="H3">
-        <v>-0.32406769814217617</v>
+        <v>-0.32406769814217601</v>
       </c>
       <c r="I3">
-        <v>-0.36776344266118738</v>
+        <v>-0.36776344266118699</v>
       </c>
       <c r="J3">
-        <v>-0.40872831958641537</v>
+        <v>-0.40872831958641498</v>
       </c>
       <c r="K3">
-        <v>-0.44706152136180938</v>
+        <v>-0.44706152136180899</v>
       </c>
       <c r="L3">
-        <v>-0.48286838244150915</v>
+        <v>-0.48286838244150898</v>
       </c>
       <c r="M3">
-        <v>-0.51625797577708588</v>
+        <v>-0.51625797577708599</v>
       </c>
       <c r="N3">
-        <v>-0.54734285075448219</v>
+        <v>-0.54734285075448197</v>
       </c>
       <c r="O3">
-        <v>-0.57623687850545646</v>
+        <v>-0.57623687850545602</v>
       </c>
       <c r="P3">
-        <v>-0.60305501000416983</v>
+        <v>-0.60305501000416994</v>
       </c>
       <c r="Q3">
-        <v>-0.62791143684497919</v>
+        <v>-0.62791143684497897</v>
       </c>
       <c r="R3">
-        <v>-0.65091944127427226</v>
+        <v>-0.65091944127427204</v>
       </c>
       <c r="S3">
-        <v>-0.67218989859649769</v>
+        <v>-0.67218989859649803</v>
       </c>
       <c r="T3">
-        <v>-0.69183125289612246</v>
+        <v>-0.69183125289612202</v>
       </c>
       <c r="U3">
-        <v>-0.70994835304964232</v>
+        <v>-0.70994835304964199</v>
       </c>
       <c r="V3">
-        <v>-0.72664253090796094</v>
+        <v>-0.72664253090796105</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2998,64 +2998,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7630674387521026E-2</v>
+        <v>7.7630674387520998E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471258769620188</v>
+        <v>0.14471258769620199</v>
       </c>
       <c r="E4">
-        <v>0.20301553134425887</v>
+        <v>0.20301553134425901</v>
       </c>
       <c r="F4">
-        <v>0.25392627514635024</v>
+        <v>0.25392627514635002</v>
       </c>
       <c r="G4">
         <v>0.29855092887378198</v>
       </c>
       <c r="H4">
-        <v>0.33778643215937354</v>
+        <v>0.33778643215937398</v>
       </c>
       <c r="I4">
-        <v>0.37236930921805067</v>
+        <v>0.372369309218051</v>
       </c>
       <c r="J4">
-        <v>0.40291209154942387</v>
+        <v>0.40291209154942398</v>
       </c>
       <c r="K4">
-        <v>0.42992881296359453</v>
+        <v>0.42992881296359498</v>
       </c>
       <c r="L4">
-        <v>0.45385524524011278</v>
+        <v>0.453855245240113</v>
       </c>
       <c r="M4">
-        <v>0.47506320321063067</v>
+        <v>0.475063203210631</v>
       </c>
       <c r="N4">
-        <v>0.49387258927599509</v>
+        <v>0.49387258927599498</v>
       </c>
       <c r="O4">
-        <v>0.51055987690520444</v>
+        <v>0.51055987690520399</v>
       </c>
       <c r="P4">
-        <v>0.52536569496376706</v>
+        <v>0.52536569496376695</v>
       </c>
       <c r="Q4">
-        <v>0.53850008911983993</v>
+        <v>0.53850008911984004</v>
       </c>
       <c r="R4">
-        <v>0.55014752678814993</v>
+        <v>0.55014752678815004</v>
       </c>
       <c r="S4">
-        <v>0.56047028370998742</v>
+        <v>0.56047028370998697</v>
       </c>
       <c r="T4">
-        <v>0.56961187969289861</v>
+        <v>0.56961187969289895</v>
       </c>
       <c r="U4">
-        <v>0.57769932842048388</v>
+        <v>0.57769932842048399</v>
       </c>
       <c r="V4">
-        <v>0.58484556186475078</v>
+        <v>0.58484556186475101</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3066,64 +3066,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2981432363641921E-2</v>
+        <v>-7.2981432363641893E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14603076833150985</v>
+        <v>-0.14603076833150999</v>
       </c>
       <c r="E5">
-        <v>-0.21903370905314362</v>
+        <v>-0.21903370905314401</v>
       </c>
       <c r="F5">
-        <v>-0.29186503748501097</v>
+        <v>-0.29186503748501103</v>
       </c>
       <c r="G5">
-        <v>-0.36439286778823587</v>
+        <v>-0.36439286778823599</v>
       </c>
       <c r="H5">
-        <v>-0.43648115946725546</v>
+        <v>-0.43648115946725502</v>
       </c>
       <c r="I5">
-        <v>-0.50799275567493474</v>
+        <v>-0.50799275567493496</v>
       </c>
       <c r="J5">
-        <v>-0.57879101526357857</v>
+        <v>-0.57879101526357901</v>
       </c>
       <c r="K5">
-        <v>-0.64874189977424035</v>
+        <v>-0.64874189977424002</v>
       </c>
       <c r="L5">
-        <v>-0.71771504654664764</v>
+        <v>-0.71771504654664797</v>
       </c>
       <c r="M5">
-        <v>-0.78558519412421968</v>
+        <v>-0.78558519412422001</v>
       </c>
       <c r="N5">
-        <v>-0.85223294327647048</v>
+        <v>-0.85223294327647003</v>
       </c>
       <c r="O5">
-        <v>-0.91754573100595471</v>
+        <v>-0.91754573100595505</v>
       </c>
       <c r="P5">
         <v>-0.98141842816392</v>
       </c>
       <c r="Q5">
-        <v>-1.0437539894385228</v>
+        <v>-1.0437539894385199</v>
       </c>
       <c r="R5">
-        <v>-1.1044639537732697</v>
+        <v>-1.1044639537732699</v>
       </c>
       <c r="S5">
-        <v>-1.1634688338686157</v>
+        <v>-1.1634688338686201</v>
       </c>
       <c r="T5">
-        <v>-1.220698529873167</v>
+        <v>-1.2206985298731701</v>
       </c>
       <c r="U5">
-        <v>-1.2760924819211001</v>
+        <v>-1.2760924819210999</v>
       </c>
       <c r="V5">
-        <v>-1.3295999655934196</v>
+        <v>-1.3295999655934201</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -885,64 +885,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410826876749694E-2</v>
+        <v>-9.841082687674968E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420391454650901</v>
+        <v>-0.1942039145465092</v>
       </c>
       <c r="E2">
-        <v>-0.28727947830587203</v>
+        <v>-0.28727947830587225</v>
       </c>
       <c r="F2">
         <v>-0.37754494257598598</v>
       </c>
       <c r="G2">
-        <v>-0.46491385473295799</v>
+        <v>-0.4649138547329576</v>
       </c>
       <c r="H2">
-        <v>-0.54930982342866896</v>
+        <v>-0.54930982342866908</v>
       </c>
       <c r="I2">
         <v>-0.63066527523914095</v>
       </c>
       <c r="J2">
-        <v>-0.70892500737663999</v>
+        <v>-0.70892500737664044</v>
       </c>
       <c r="K2">
-        <v>-0.78404483782716095</v>
+        <v>-0.7840448378271605</v>
       </c>
       <c r="L2">
-        <v>-0.85599462915662405</v>
+        <v>-0.85599462915662394</v>
       </c>
       <c r="M2">
-        <v>-0.92475671263775205</v>
+        <v>-0.9247567126377525</v>
       </c>
       <c r="N2">
-        <v>-0.99032827686321301</v>
+        <v>-0.99032827686321312</v>
       </c>
       <c r="O2">
-        <v>-1.0527194924998</v>
+        <v>-1.052719492499798</v>
       </c>
       <c r="P2">
-        <v>-1.11195522146633</v>
+        <v>-1.1119552214663309</v>
       </c>
       <c r="Q2">
-        <v>-1.168072833421</v>
+        <v>-1.1680728334210047</v>
       </c>
       <c r="R2">
-        <v>-1.2211232647905901</v>
+        <v>-1.2211232647905947</v>
       </c>
       <c r="S2">
-        <v>-1.27116858507644</v>
+        <v>-1.2711685850764449</v>
       </c>
       <c r="T2">
-        <v>-1.31828250241885</v>
+        <v>-1.3182825024188456</v>
       </c>
       <c r="U2">
-        <v>-1.3625477905160099</v>
+        <v>-1.3625477905160117</v>
       </c>
       <c r="V2">
-        <v>-1.40405631536208</v>
+        <v>-1.4040563153620824</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -953,64 +953,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696595351877097E-2</v>
+        <v>-6.1696595351877104E-2</v>
       </c>
       <c r="D3">
-        <v>-0.120253568155566</v>
+        <v>-0.12025356815556576</v>
       </c>
       <c r="E3">
-        <v>-0.17571069152289501</v>
+        <v>-0.17571069152289509</v>
       </c>
       <c r="F3">
-        <v>-0.22812094601532501</v>
+        <v>-0.2281209460153252</v>
       </c>
       <c r="G3">
-        <v>-0.277548206136642</v>
+        <v>-0.27754820613664227</v>
       </c>
       <c r="H3">
-        <v>-0.32406769814217601</v>
+        <v>-0.32406769814217617</v>
       </c>
       <c r="I3">
-        <v>-0.36776344266118699</v>
+        <v>-0.36776344266118738</v>
       </c>
       <c r="J3">
-        <v>-0.40872831958641498</v>
+        <v>-0.40872831958641537</v>
       </c>
       <c r="K3">
-        <v>-0.44706152136180899</v>
+        <v>-0.44706152136180938</v>
       </c>
       <c r="L3">
-        <v>-0.48286838244150898</v>
+        <v>-0.48286838244150915</v>
       </c>
       <c r="M3">
-        <v>-0.51625797577708599</v>
+        <v>-0.51625797577708588</v>
       </c>
       <c r="N3">
-        <v>-0.54734285075448197</v>
+        <v>-0.54734285075448219</v>
       </c>
       <c r="O3">
-        <v>-0.57623687850545602</v>
+        <v>-0.57623687850545646</v>
       </c>
       <c r="P3">
-        <v>-0.60305501000416994</v>
+        <v>-0.60305501000416983</v>
       </c>
       <c r="Q3">
-        <v>-0.62791143684497897</v>
+        <v>-0.62791143684497919</v>
       </c>
       <c r="R3">
-        <v>-0.65091944127427204</v>
+        <v>-0.65091944127427226</v>
       </c>
       <c r="S3">
-        <v>-0.67218989859649803</v>
+        <v>-0.67218989859649769</v>
       </c>
       <c r="T3">
-        <v>-0.69183125289612202</v>
+        <v>-0.69183125289612246</v>
       </c>
       <c r="U3">
-        <v>-0.70994835304964199</v>
+        <v>-0.70994835304964232</v>
       </c>
       <c r="V3">
-        <v>-0.72664253090796105</v>
+        <v>-0.72664253090796094</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1089,64 +1089,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.9084241535294502E-2</v>
+        <v>-3.9084241535294474E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6104122696779297E-2</v>
+        <v>-7.6104122696779311E-2</v>
       </c>
       <c r="E5">
-        <v>-0.111126117263702</v>
+        <v>-0.11112611726370206</v>
       </c>
       <c r="F5">
-        <v>-0.144219016320279</v>
+        <v>-0.14421901632027886</v>
       </c>
       <c r="G5">
-        <v>-0.17545302696547499</v>
+        <v>-0.17545302696547482</v>
       </c>
       <c r="H5">
-        <v>-0.204899816378557</v>
+        <v>-0.20489981637855745</v>
       </c>
       <c r="I5">
-        <v>-0.232631633026955</v>
+        <v>-0.23263163302695536</v>
       </c>
       <c r="J5">
-        <v>-0.25872130664833798</v>
+        <v>-0.25872130664833803</v>
       </c>
       <c r="K5">
-        <v>-0.283241456012847</v>
+        <v>-0.28324145601284745</v>
       </c>
       <c r="L5">
-        <v>-0.30626447908384202</v>
+        <v>-0.30626447908384169</v>
       </c>
       <c r="M5">
-        <v>-0.32786186336842998</v>
+        <v>-0.32786186336842987</v>
       </c>
       <c r="N5">
-        <v>-0.34810418983980901</v>
+        <v>-0.34810418983980868</v>
       </c>
       <c r="O5">
-        <v>-0.367060552814712</v>
+        <v>-0.36706055281471173</v>
       </c>
       <c r="P5">
-        <v>-0.384798591291792</v>
+        <v>-0.38479859129179239</v>
       </c>
       <c r="Q5">
-        <v>-0.401384017346892</v>
+        <v>-0.40138401734689216</v>
       </c>
       <c r="R5">
-        <v>-0.41688068036492099</v>
+        <v>-0.41688068036492087</v>
       </c>
       <c r="S5">
-        <v>-0.43135019689024801</v>
+        <v>-0.43135019689024756</v>
       </c>
       <c r="T5">
-        <v>-0.44485204722071098</v>
+        <v>-0.44485204722071076</v>
       </c>
       <c r="U5">
-        <v>-0.45744329569445602</v>
+        <v>-0.45744329569445641</v>
       </c>
       <c r="V5">
-        <v>-0.46917870617728702</v>
+        <v>-0.46917870617728719</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.481348022835352</v>
+        <v>0.48134802283535172</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24684758600933701</v>
+        <v>0.24684758600933732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.696267561899931</v>
+        <v>0.69626756189993144</v>
       </c>
       <c r="E4">
-        <v>0.62747511711873905</v>
+        <v>0.62747511711873949</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97490411344243999</v>
+        <v>-0.97490411344244032</v>
       </c>
       <c r="E5">
-        <v>0.95333031368794197</v>
+        <v>0.95333031368794163</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8827156601495599E-5</v>
+        <v>2.8827156601495609E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9865552223371502E-6</v>
+        <v>6.9865552223371536E-6</v>
       </c>
       <c r="C8">
-        <v>1.39731104446743E-5</v>
+        <v>1.3973110444674307E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.3356471353422703E-7</v>
+        <v>6.3356471353422735E-7</v>
       </c>
       <c r="C9">
-        <v>1.26712942706845E-6</v>
+        <v>1.2671294270684547E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4497335389794999E-4</v>
+        <v>1.4497335389794953E-4</v>
       </c>
       <c r="C10">
-        <v>1.4497335389794999E-4</v>
+        <v>1.4497335389794953E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.01522013576988E-5</v>
+        <v>1.015220135769877E-5</v>
       </c>
       <c r="C11">
-        <v>1.1652710960466601E-4</v>
+        <v>1.1652710960466557E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1757,40 +1757,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1798,40 +1798,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1839,40 +1839,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1880,40 +1880,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2007,40 +2009,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2048,40 +2050,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2130,40 +2132,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2652,7 +2654,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2661,10 +2663,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2679,13 +2681,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2694,13 +2696,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2862,64 +2864,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410826876749694E-2</v>
+        <v>-9.841082687674968E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420391454650901</v>
+        <v>-0.1942039145465092</v>
       </c>
       <c r="E2">
-        <v>-0.28727947830587203</v>
+        <v>-0.28727947830587225</v>
       </c>
       <c r="F2">
         <v>-0.37754494257598598</v>
       </c>
       <c r="G2">
-        <v>-0.46491385473295799</v>
+        <v>-0.4649138547329576</v>
       </c>
       <c r="H2">
-        <v>-0.54930982342866896</v>
+        <v>-0.54930982342866908</v>
       </c>
       <c r="I2">
         <v>-0.63066527523914095</v>
       </c>
       <c r="J2">
-        <v>-0.70892500737663999</v>
+        <v>-0.70892500737664044</v>
       </c>
       <c r="K2">
-        <v>-0.78404483782716095</v>
+        <v>-0.7840448378271605</v>
       </c>
       <c r="L2">
-        <v>-0.85599462915662405</v>
+        <v>-0.85599462915662394</v>
       </c>
       <c r="M2">
-        <v>-0.92475671263775205</v>
+        <v>-0.9247567126377525</v>
       </c>
       <c r="N2">
-        <v>-0.99032827686321301</v>
+        <v>-0.99032827686321312</v>
       </c>
       <c r="O2">
-        <v>-1.0527194924998</v>
+        <v>-1.052719492499798</v>
       </c>
       <c r="P2">
-        <v>-1.11195522146633</v>
+        <v>-1.1119552214663309</v>
       </c>
       <c r="Q2">
-        <v>-1.168072833421</v>
+        <v>-1.1680728334210047</v>
       </c>
       <c r="R2">
-        <v>-1.2211232647905901</v>
+        <v>-1.2211232647905947</v>
       </c>
       <c r="S2">
-        <v>-1.27116858507644</v>
+        <v>-1.2711685850764449</v>
       </c>
       <c r="T2">
-        <v>-1.31828250241885</v>
+        <v>-1.3182825024188456</v>
       </c>
       <c r="U2">
-        <v>-1.3625477905160099</v>
+        <v>-1.3625477905160117</v>
       </c>
       <c r="V2">
-        <v>-1.40405631536208</v>
+        <v>-1.4040563153620824</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2930,64 +2932,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696595351877097E-2</v>
+        <v>-6.1696595351877104E-2</v>
       </c>
       <c r="D3">
-        <v>-0.120253568155566</v>
+        <v>-0.12025356815556576</v>
       </c>
       <c r="E3">
-        <v>-0.17571069152289501</v>
+        <v>-0.17571069152289509</v>
       </c>
       <c r="F3">
-        <v>-0.22812094601532501</v>
+        <v>-0.2281209460153252</v>
       </c>
       <c r="G3">
-        <v>-0.277548206136642</v>
+        <v>-0.27754820613664227</v>
       </c>
       <c r="H3">
-        <v>-0.32406769814217601</v>
+        <v>-0.32406769814217617</v>
       </c>
       <c r="I3">
-        <v>-0.36776344266118699</v>
+        <v>-0.36776344266118738</v>
       </c>
       <c r="J3">
-        <v>-0.40872831958641498</v>
+        <v>-0.40872831958641537</v>
       </c>
       <c r="K3">
-        <v>-0.44706152136180899</v>
+        <v>-0.44706152136180938</v>
       </c>
       <c r="L3">
-        <v>-0.48286838244150898</v>
+        <v>-0.48286838244150915</v>
       </c>
       <c r="M3">
-        <v>-0.51625797577708599</v>
+        <v>-0.51625797577708588</v>
       </c>
       <c r="N3">
-        <v>-0.54734285075448197</v>
+        <v>-0.54734285075448219</v>
       </c>
       <c r="O3">
-        <v>-0.57623687850545602</v>
+        <v>-0.57623687850545646</v>
       </c>
       <c r="P3">
-        <v>-0.60305501000416994</v>
+        <v>-0.60305501000416983</v>
       </c>
       <c r="Q3">
-        <v>-0.62791143684497897</v>
+        <v>-0.62791143684497919</v>
       </c>
       <c r="R3">
-        <v>-0.65091944127427204</v>
+        <v>-0.65091944127427226</v>
       </c>
       <c r="S3">
-        <v>-0.67218989859649803</v>
+        <v>-0.67218989859649769</v>
       </c>
       <c r="T3">
-        <v>-0.69183125289612202</v>
+        <v>-0.69183125289612246</v>
       </c>
       <c r="U3">
-        <v>-0.70994835304964199</v>
+        <v>-0.70994835304964232</v>
       </c>
       <c r="V3">
-        <v>-0.72664253090796105</v>
+        <v>-0.72664253090796094</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2998,64 +3000,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7630674387520998E-2</v>
+        <v>7.7630674387521026E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471258769620199</v>
+        <v>0.14471258769620188</v>
       </c>
       <c r="E4">
-        <v>0.20301553134425901</v>
+        <v>0.20301553134425887</v>
       </c>
       <c r="F4">
-        <v>0.25392627514635002</v>
+        <v>0.25392627514635024</v>
       </c>
       <c r="G4">
         <v>0.29855092887378198</v>
       </c>
       <c r="H4">
-        <v>0.33778643215937398</v>
+        <v>0.33778643215937354</v>
       </c>
       <c r="I4">
-        <v>0.372369309218051</v>
+        <v>0.37236930921805067</v>
       </c>
       <c r="J4">
-        <v>0.40291209154942398</v>
+        <v>0.40291209154942387</v>
       </c>
       <c r="K4">
-        <v>0.42992881296359498</v>
+        <v>0.42992881296359453</v>
       </c>
       <c r="L4">
-        <v>0.453855245240113</v>
+        <v>0.45385524524011278</v>
       </c>
       <c r="M4">
-        <v>0.475063203210631</v>
+        <v>0.47506320321063067</v>
       </c>
       <c r="N4">
-        <v>0.49387258927599498</v>
+        <v>0.49387258927599509</v>
       </c>
       <c r="O4">
-        <v>0.51055987690520399</v>
+        <v>0.51055987690520444</v>
       </c>
       <c r="P4">
-        <v>0.52536569496376695</v>
+        <v>0.52536569496376706</v>
       </c>
       <c r="Q4">
-        <v>0.53850008911984004</v>
+        <v>0.53850008911983993</v>
       </c>
       <c r="R4">
-        <v>0.55014752678815004</v>
+        <v>0.55014752678814993</v>
       </c>
       <c r="S4">
-        <v>0.56047028370998697</v>
+        <v>0.56047028370998742</v>
       </c>
       <c r="T4">
-        <v>0.56961187969289895</v>
+        <v>0.56961187969289861</v>
       </c>
       <c r="U4">
-        <v>0.57769932842048399</v>
+        <v>0.57769932842048388</v>
       </c>
       <c r="V4">
-        <v>0.58484556186475101</v>
+        <v>0.58484556186475078</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3066,64 +3068,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2981432363641893E-2</v>
+        <v>-7.2981432363641921E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14603076833150999</v>
+        <v>-0.14603076833150985</v>
       </c>
       <c r="E5">
-        <v>-0.21903370905314401</v>
+        <v>-0.21903370905314362</v>
       </c>
       <c r="F5">
-        <v>-0.29186503748501103</v>
+        <v>-0.29186503748501097</v>
       </c>
       <c r="G5">
-        <v>-0.36439286778823599</v>
+        <v>-0.36439286778823587</v>
       </c>
       <c r="H5">
-        <v>-0.43648115946725502</v>
+        <v>-0.43648115946725546</v>
       </c>
       <c r="I5">
-        <v>-0.50799275567493496</v>
+        <v>-0.50799275567493474</v>
       </c>
       <c r="J5">
-        <v>-0.57879101526357901</v>
+        <v>-0.57879101526357857</v>
       </c>
       <c r="K5">
-        <v>-0.64874189977424002</v>
+        <v>-0.64874189977424035</v>
       </c>
       <c r="L5">
-        <v>-0.71771504654664797</v>
+        <v>-0.71771504654664764</v>
       </c>
       <c r="M5">
-        <v>-0.78558519412422001</v>
+        <v>-0.78558519412421968</v>
       </c>
       <c r="N5">
-        <v>-0.85223294327647003</v>
+        <v>-0.85223294327647048</v>
       </c>
       <c r="O5">
-        <v>-0.91754573100595505</v>
+        <v>-0.91754573100595471</v>
       </c>
       <c r="P5">
         <v>-0.98141842816392</v>
       </c>
       <c r="Q5">
-        <v>-1.0437539894385199</v>
+        <v>-1.0437539894385228</v>
       </c>
       <c r="R5">
-        <v>-1.1044639537732699</v>
+        <v>-1.1044639537732697</v>
       </c>
       <c r="S5">
-        <v>-1.1634688338686201</v>
+        <v>-1.1634688338686157</v>
       </c>
       <c r="T5">
-        <v>-1.2206985298731701</v>
+        <v>-1.220698529873167</v>
       </c>
       <c r="U5">
-        <v>-1.2760924819210999</v>
+        <v>-1.2760924819211001</v>
       </c>
       <c r="V5">
-        <v>-1.3295999655934201</v>
+        <v>-1.3295999655934196</v>
       </c>
     </row>
   </sheetData>
